--- a/public/files/item_import_format.xlsx
+++ b/public/files/item_import_format.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>UPC</t>
   </si>
@@ -69,31 +69,10 @@
     <t>Olives Assorted</t>
   </si>
   <si>
-    <t>Mayonnaise Lesieur 175 gr</t>
-  </si>
-  <si>
-    <t>Mayonnaise B Or  255 gr</t>
-  </si>
-  <si>
-    <t>Sauce Bechamel B Or</t>
-  </si>
-  <si>
-    <t>Sauce Hollandaise B Or</t>
-  </si>
-  <si>
-    <t>Almond Salted 1.5 OZ</t>
-  </si>
-  <si>
-    <t>Pistachios Salted 1.50 oz</t>
-  </si>
-  <si>
-    <t>Capers Fruits Italy 530 g</t>
-  </si>
-  <si>
-    <t>Capers</t>
-  </si>
-  <si>
     <t>supplier</t>
+  </si>
+  <si>
+    <t>product_id</t>
   </si>
 </sst>
 </file>
@@ -901,15 +880,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I20"/>
+      <selection activeCell="A12" sqref="A12:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -929,10 +908,13 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20018300000</v>
       </c>
@@ -954,8 +936,11 @@
       <c r="I2">
         <v>1</v>
       </c>
+      <c r="J2">
+        <v>111</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20040500000</v>
       </c>
@@ -977,8 +962,11 @@
       <c r="I3">
         <v>1</v>
       </c>
+      <c r="J3">
+        <v>112</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20047100000</v>
       </c>
@@ -1000,8 +988,11 @@
       <c r="I4">
         <v>1</v>
       </c>
+      <c r="J4">
+        <v>113</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>6190000000000</v>
       </c>
@@ -1023,8 +1014,11 @@
       <c r="I5">
         <v>1</v>
       </c>
+      <c r="J5">
+        <v>114</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6190000000000</v>
       </c>
@@ -1046,8 +1040,11 @@
       <c r="I6">
         <v>1</v>
       </c>
+      <c r="J6">
+        <v>115</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6190000000000</v>
       </c>
@@ -1069,8 +1066,11 @@
       <c r="I7">
         <v>1</v>
       </c>
+      <c r="J7">
+        <v>116</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3250000000000</v>
       </c>
@@ -1092,8 +1092,11 @@
       <c r="I8">
         <v>1</v>
       </c>
+      <c r="J8">
+        <v>117</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20013300000</v>
       </c>
@@ -1115,8 +1118,11 @@
       <c r="I9">
         <v>1</v>
       </c>
+      <c r="J9">
+        <v>118</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20017700000</v>
       </c>
@@ -1138,8 +1144,11 @@
       <c r="I10">
         <v>1</v>
       </c>
+      <c r="J10">
+        <v>119</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20046900000</v>
       </c>
@@ -1161,212 +1170,8 @@
       <c r="I11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>3010000000000</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12">
-        <v>1.45</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="H12">
-        <v>100</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>3250000000000</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13">
-        <v>1.31</v>
-      </c>
-      <c r="F13">
-        <v>3.07</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="H13">
-        <v>100</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>3250000000000</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14">
-        <v>0.85</v>
-      </c>
-      <c r="F14">
-        <v>1.45</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14">
-        <v>100</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>3250000000000</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15">
-        <v>0.85</v>
-      </c>
-      <c r="F15">
-        <v>1.65</v>
-      </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="H15">
-        <v>100</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>3440000000000</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16">
-        <v>1.45</v>
-      </c>
-      <c r="F16">
-        <v>3.5</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-      <c r="H16">
-        <v>100</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1411321028</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>0.95</v>
-      </c>
-      <c r="F17">
-        <v>1.65</v>
-      </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="H17">
-        <v>100</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1411391185</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>0.95</v>
-      </c>
-      <c r="F18">
-        <v>1.65</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
-      <c r="H18">
-        <v>100</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>8060000000000</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>3.1</v>
-      </c>
-      <c r="F19">
-        <v>7.95</v>
-      </c>
-      <c r="G19">
-        <v>4</v>
-      </c>
-      <c r="H19">
-        <v>100</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>20048800000</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>8</v>
-      </c>
-      <c r="F20">
-        <v>19.5</v>
-      </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
-      <c r="H20">
-        <v>100</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
+      <c r="J11">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/item_import_format.xlsx
+++ b/public/files/item_import_format.xlsx
@@ -33,9 +33,6 @@
     <t>Sell</t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -69,10 +66,13 @@
     <t>Olives Assorted</t>
   </si>
   <si>
-    <t>supplier</t>
-  </si>
-  <si>
     <t>product_id</t>
+  </si>
+  <si>
+    <t>supplier_id</t>
+  </si>
+  <si>
+    <t>category_id</t>
   </si>
 </sst>
 </file>
@@ -883,295 +883,295 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD24"/>
+      <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>111</v>
+      </c>
+      <c r="B2">
         <v>20018300000</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>16.420000000000002</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>100</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1</v>
-      </c>
-      <c r="J2">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>112</v>
+      </c>
+      <c r="B3">
         <v>20040500000</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
         <v>14.24</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>18.510000000000002</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>100</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1</v>
-      </c>
-      <c r="J3">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>113</v>
+      </c>
+      <c r="B4">
         <v>20047100000</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
         <v>12.9</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>17.25</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>100</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1</v>
-      </c>
-      <c r="J4">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5">
+        <v>114</v>
+      </c>
+      <c r="B5" s="1">
         <v>6190000000000</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
         <v>3.95</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>8.9499999999999993</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>100</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1</v>
-      </c>
-      <c r="J5">
-        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6">
+        <v>115</v>
+      </c>
+      <c r="B6" s="1">
         <v>6190000000000</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
         <v>1.17</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2.75</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>100</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1</v>
-      </c>
-      <c r="J6">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7">
+        <v>116</v>
+      </c>
+      <c r="B7" s="1">
         <v>6190000000000</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
         <v>1.84</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3.75</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>100</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1</v>
-      </c>
-      <c r="J7">
-        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8">
+        <v>117</v>
+      </c>
+      <c r="B8" s="1">
         <v>3250000000000</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8">
         <v>1.3</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>3.5</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>100</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1</v>
-      </c>
-      <c r="J8">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>118</v>
+      </c>
+      <c r="B9">
         <v>20013300000</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>4</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>100</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1</v>
-      </c>
-      <c r="J9">
-        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>119</v>
+      </c>
+      <c r="B10">
         <v>20017700000</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10">
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
         <v>15.12</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>19.66</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>4</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>100</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1</v>
-      </c>
-      <c r="J10">
-        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>120</v>
+      </c>
+      <c r="B11">
         <v>20046900000</v>
       </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11">
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>14.5</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>100</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1</v>
-      </c>
-      <c r="J11">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
